--- a/src/main/resources/static/excel/template.xlsx
+++ b/src/main/resources/static/excel/template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>VIG USER List</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>banDate</t>
+  </si>
+  <si>
+    <t>primeCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -512,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -604,7 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -662,7 +666,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>7</v>
